--- a/biology/Médecine/Physiologie_pleurale/Physiologie_pleurale.xlsx
+++ b/biology/Médecine/Physiologie_pleurale/Physiologie_pleurale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,12 +520,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sécrétion du liquide pleural
-Il est sécrété de manière continue par la plèvre, principalement par filtration au niveau des micro-vaisseaux de la plèvre pariétale. Le débit est de l'ordre de 0.15 ml/kg/h[1].
-Résorption du liquide pleural
-Classiquement la sécrétion/résorption du liquide pleural était expliquée par un mécanisme d’équilibration entre pressions hydrostatique et osmotique de part et d’autre des plèvres viscérale et pariétale. Le flux liquidien dépend ainsi du coefficient de perméabilité de la plèvre et des différentiels de pression hydrostatique et oncotique. Des études sur des grands mammifères ont montré que la résorption de liquide pleural pouvait se faire par les pores lymphatiques de la plèvre pariétale.
-Composition du liquide pleural
-Volume : 0.26 mL/kg[2]
+          <t>Sécrétion du liquide pleural</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est sécrété de manière continue par la plèvre, principalement par filtration au niveau des micro-vaisseaux de la plèvre pariétale. Le débit est de l'ordre de 0.15 ml/kg/h.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Physiologie_pleurale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Physiologie_pleurale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Le liquide pleural</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résorption du liquide pleural</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classiquement la sécrétion/résorption du liquide pleural était expliquée par un mécanisme d’équilibration entre pressions hydrostatique et osmotique de part et d’autre des plèvres viscérale et pariétale. Le flux liquidien dépend ainsi du coefficient de perméabilité de la plèvre et des différentiels de pression hydrostatique et oncotique. Des études sur des grands mammifères ont montré que la résorption de liquide pleural pouvait se faire par les pores lymphatiques de la plèvre pariétale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Physiologie_pleurale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Physiologie_pleurale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le liquide pleural</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Composition du liquide pleural</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Volume : 0.26 mL/kg
 Composition chimique
 Protéines : 10-20 g/L
 Albumine : 50-70 %
@@ -533,31 +620,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Physiologie_pleurale</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Physiologie_pleurale</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>La pression pleurale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est négative et proportionnelle à la pression développée dans le poumon. En fin d’expiration, les forces élastiques du thorax et du poumon s’équilibrent et la pression pleurale est de –2 à –5 cm H2O.
 La pression pleurale n’est pas uniforme, elle est plus négative au sommet, -7/-9 cm H2O, qu’à la base, 0/-2 cm H2O.
@@ -565,34 +654,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Physiologie_pleurale</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Physiologie_pleurale</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Cas particuliers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'éléphant est le seul mammifère a ne pas avoir de cavité pleurale[3]. Cela lui permet de respirer par sa trompe sous l'eau sans subir des contraintes de pression[4].
-Certains bisons n'ont qu'une seule cavité pleurale (pour les deux poumons) avec risque d'un pneumothorax cataclysmique en cas de plaie du thorax[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'éléphant est le seul mammifère a ne pas avoir de cavité pleurale. Cela lui permet de respirer par sa trompe sous l'eau sans subir des contraintes de pression.
+Certains bisons n'ont qu'une seule cavité pleurale (pour les deux poumons) avec risque d'un pneumothorax cataclysmique en cas de plaie du thorax.
 </t>
         </is>
       </c>
